--- a/Calendario-EcoTeorica.xlsx
+++ b/Calendario-EcoTeorica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Participa</t>
   </si>
   <si>
+    <t xml:space="preserve">Observaciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">I</t>
   </si>
   <si>
@@ -43,34 +46,37 @@
     <t xml:space="preserve">II</t>
   </si>
   <si>
+    <t xml:space="preserve">VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lichos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
     <t xml:space="preserve">III</t>
   </si>
   <si>
-    <t xml:space="preserve">Brenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge</t>
+    <t xml:space="preserve">Grecia</t>
   </si>
   <si>
     <t xml:space="preserve">VIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rusby</t>
   </si>
   <si>
     <t xml:space="preserve">IX</t>
@@ -107,7 +113,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +134,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFDEE6EF"/>
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFDEDCE6"/>
       </patternFill>
     </fill>
     <fill>
@@ -140,14 +146,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDEDCE6"/>
         <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7D1D5"/>
-        <bgColor rgb="FFDEDCE6"/>
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
   </fills>
@@ -185,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,6 +243,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,13 +331,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.36"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -332,724 +355,727 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>45145</v>
+        <v>45509</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <f aca="false">A2+1</f>
-        <v>45146</v>
+        <v>45510</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <f aca="false">A3+2</f>
-        <v>45148</v>
+        <v>45512</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <f aca="false">A4+1</f>
-        <v>45149</v>
+        <v>45513</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <f aca="false">A2+7</f>
-        <v>45152</v>
+        <v>45516</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <f aca="false">A3+7</f>
-        <v>45153</v>
+        <v>45517</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <f aca="false">A4+7</f>
-        <v>45155</v>
+        <v>45519</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">A5+7</f>
-        <v>45156</v>
+        <v>45520</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <f aca="false">A6+7</f>
-        <v>45159</v>
+        <v>45523</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <f aca="false">A7+7</f>
-        <v>45160</v>
+        <v>45524</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <f aca="false">A8+7</f>
-        <v>45162</v>
+        <v>45526</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <f aca="false">A9+7</f>
-        <v>45163</v>
+        <v>45527</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <f aca="false">A10+7</f>
-        <v>45166</v>
+        <v>45530</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <f aca="false">A11+7</f>
-        <v>45167</v>
+        <v>45531</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <f aca="false">A12+7</f>
-        <v>45169</v>
+        <v>45533</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">A13+7</f>
-        <v>45170</v>
+        <v>45534</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <f aca="false">A14+7</f>
-        <v>45173</v>
+        <v>45537</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <f aca="false">A15+7</f>
-        <v>45174</v>
+        <v>45538</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <f aca="false">A16+7</f>
-        <v>45176</v>
+        <v>45540</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <f aca="false">A17+7</f>
-        <v>45177</v>
+        <v>45541</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">A18+7</f>
-        <v>45180</v>
+        <v>45544</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">A19+7</f>
-        <v>45181</v>
+        <v>45545</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">A20+7</f>
-        <v>45183</v>
+        <v>45547</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <f aca="false">A21+7</f>
-        <v>45184</v>
+        <v>45548</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <f aca="false">A22+7</f>
-        <v>45187</v>
+        <v>45551</v>
       </c>
       <c r="B26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
+        <f aca="false">A23+7</f>
+        <v>45552</v>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
+        <f aca="false">A24+7</f>
+        <v>45554</v>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
+        <f aca="false">A25+7</f>
+        <v>45555</v>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
+        <f aca="false">A26+7</f>
+        <v>45558</v>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <f aca="false">A27+7</f>
+        <v>45559</v>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <f aca="false">A28+7</f>
+        <v>45561</v>
+      </c>
+      <c r="B32" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="n">
+        <f aca="false">A29+7</f>
+        <v>45562</v>
+      </c>
+      <c r="B33" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="n">
+        <f aca="false">A30+7</f>
+        <v>45565</v>
+      </c>
+      <c r="B34" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="n">
+        <f aca="false">A31+7</f>
+        <v>45566</v>
+      </c>
+      <c r="B35" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="n">
+        <f aca="false">A32+7</f>
+        <v>45568</v>
+      </c>
+      <c r="B36" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <f aca="false">A33+7</f>
+        <v>45569</v>
+      </c>
+      <c r="B37" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="n">
+        <f aca="false">A34+7</f>
+        <v>45572</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="n">
+        <f aca="false">A35+7</f>
+        <v>45573</v>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="n">
+        <f aca="false">A36+7</f>
+        <v>45575</v>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="n">
+        <f aca="false">A37+7</f>
+        <v>45576</v>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="n">
+        <f aca="false">A38+7</f>
+        <v>45579</v>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="n">
+        <f aca="false">A39+7</f>
+        <v>45580</v>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="n">
+        <f aca="false">A40+7</f>
+        <v>45582</v>
+      </c>
+      <c r="B44" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="n">
+        <f aca="false">A41+7</f>
+        <v>45583</v>
+      </c>
+      <c r="B45" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="n">
+        <f aca="false">A42+7</f>
+        <v>45586</v>
+      </c>
+      <c r="B46" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
-        <f aca="false">A23+7</f>
-        <v>45188</v>
-      </c>
-      <c r="B27" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="C46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="n">
+        <f aca="false">A43+7</f>
+        <v>45587</v>
+      </c>
+      <c r="B47" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
-        <f aca="false">A24+7</f>
-        <v>45190</v>
-      </c>
-      <c r="B28" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="C47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="n">
+        <f aca="false">A44+7</f>
+        <v>45589</v>
+      </c>
+      <c r="B48" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
-        <f aca="false">A25+7</f>
-        <v>45191</v>
-      </c>
-      <c r="B29" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="C48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="n">
+        <f aca="false">A45+7</f>
+        <v>45590</v>
+      </c>
+      <c r="B49" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
-        <f aca="false">A26+7</f>
-        <v>45194</v>
-      </c>
-      <c r="B30" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
-        <f aca="false">A27+7</f>
-        <v>45195</v>
-      </c>
-      <c r="B31" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
-        <f aca="false">A28+7</f>
-        <v>45197</v>
-      </c>
-      <c r="B32" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
-        <f aca="false">A29+7</f>
-        <v>45198</v>
-      </c>
-      <c r="B33" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
-        <f aca="false">A30+7</f>
-        <v>45201</v>
-      </c>
-      <c r="B34" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
-        <f aca="false">A31+7</f>
-        <v>45202</v>
-      </c>
-      <c r="B35" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
-        <f aca="false">A32+7</f>
-        <v>45204</v>
-      </c>
-      <c r="B36" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
-        <f aca="false">A33+7</f>
-        <v>45205</v>
-      </c>
-      <c r="B37" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
-        <f aca="false">A34+7</f>
-        <v>45208</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
-        <f aca="false">A35+7</f>
-        <v>45209</v>
-      </c>
-      <c r="B39" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
-        <f aca="false">A36+7</f>
-        <v>45211</v>
-      </c>
-      <c r="B40" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
-        <f aca="false">A37+7</f>
-        <v>45212</v>
-      </c>
-      <c r="B41" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
-        <f aca="false">A38+7</f>
-        <v>45215</v>
-      </c>
-      <c r="B42" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
-        <f aca="false">A39+7</f>
-        <v>45216</v>
-      </c>
-      <c r="B43" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <f aca="false">A40+7</f>
-        <v>45218</v>
-      </c>
-      <c r="B44" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <f aca="false">A41+7</f>
-        <v>45219</v>
-      </c>
-      <c r="B45" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <f aca="false">A42+7</f>
-        <v>45222</v>
-      </c>
-      <c r="B46" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <f aca="false">A43+7</f>
-        <v>45223</v>
-      </c>
-      <c r="B47" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <f aca="false">A44+7</f>
-        <v>45225</v>
-      </c>
-      <c r="B48" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <f aca="false">A45+7</f>
-        <v>45226</v>
-      </c>
-      <c r="B49" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>8</v>
+      <c r="C49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Calendario-EcoTeorica.xlsx
+++ b/Calendario-EcoTeorica.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">V</t>
   </si>
   <si>
-    <t xml:space="preserve">Lichos</t>
+    <t xml:space="preserve">Aníbal</t>
   </si>
   <si>
     <t xml:space="preserve">VI</t>
@@ -123,43 +123,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7D1D5"/>
-        <bgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE994"/>
+        <fgColor rgb="FFFF1744"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF176"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFBDBDBD"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEDCE6"/>
-        <bgColor rgb="FFDEE6EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFDEE6EF"/>
+        <fgColor rgb="FFC5E1A5"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,7 +267,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF1744"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -279,7 +279,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -288,7 +288,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDEDCE6"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -299,8 +299,8 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFDDE8CB"/>
-      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FFC5E1A5"/>
+      <rgbColor rgb="FFFFF176"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -333,11 +333,11 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.36"/>
   </cols>
@@ -361,7 +361,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45880</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
@@ -376,7 +376,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <f aca="false">A2+1</f>
-        <v>45510</v>
+        <v>45881</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -391,7 +391,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <f aca="false">A3+2</f>
-        <v>45512</v>
+        <v>45883</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
@@ -406,7 +406,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <f aca="false">A4+1</f>
-        <v>45513</v>
+        <v>45884</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1</v>
@@ -421,7 +421,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <f aca="false">A2+7</f>
-        <v>45516</v>
+        <v>45887</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>2</v>
@@ -436,7 +436,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <f aca="false">A3+7</f>
-        <v>45517</v>
+        <v>45888</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>2</v>
@@ -451,7 +451,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <f aca="false">A4+7</f>
-        <v>45519</v>
+        <v>45890</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>2</v>
@@ -466,7 +466,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">A5+7</f>
-        <v>45520</v>
+        <v>45891</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>2</v>
@@ -481,7 +481,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <f aca="false">A6+7</f>
-        <v>45523</v>
+        <v>45894</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>8</v>
@@ -496,7 +496,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <f aca="false">A7+7</f>
-        <v>45524</v>
+        <v>45895</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>8</v>
@@ -511,7 +511,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <f aca="false">A8+7</f>
-        <v>45526</v>
+        <v>45897</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>8</v>
@@ -526,7 +526,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <f aca="false">A9+7</f>
-        <v>45527</v>
+        <v>45898</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>9</v>
@@ -541,7 +541,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <f aca="false">A10+7</f>
-        <v>45530</v>
+        <v>45901</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>9</v>
@@ -556,7 +556,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <f aca="false">A11+7</f>
-        <v>45531</v>
+        <v>45902</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>9</v>
@@ -571,7 +571,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <f aca="false">A12+7</f>
-        <v>45533</v>
+        <v>45904</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">A13+7</f>
-        <v>45534</v>
+        <v>45905</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>4</v>
@@ -601,7 +601,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <f aca="false">A14+7</f>
-        <v>45537</v>
+        <v>45908</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>5</v>
@@ -616,7 +616,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <f aca="false">A15+7</f>
-        <v>45538</v>
+        <v>45909</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>5</v>
@@ -631,7 +631,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <f aca="false">A16+7</f>
-        <v>45540</v>
+        <v>45911</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>5</v>
@@ -646,7 +646,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <f aca="false">A17+7</f>
-        <v>45541</v>
+        <v>45912</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>5</v>
@@ -661,7 +661,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">A18+7</f>
-        <v>45544</v>
+        <v>45915</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>6</v>
@@ -676,7 +676,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">A19+7</f>
-        <v>45545</v>
+        <v>45916</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>6</v>
@@ -689,69 +689,69 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="8" t="n">
         <f aca="false">A20+7</f>
-        <v>45547</v>
-      </c>
-      <c r="B24" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>45918</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="8" t="n">
         <f aca="false">A21+7</f>
-        <v>45548</v>
-      </c>
-      <c r="B25" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>45919</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <f aca="false">A22+7</f>
-        <v>45551</v>
+        <v>45922</v>
       </c>
       <c r="B26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <f aca="false">A23+7</f>
+        <v>45923</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
-        <f aca="false">A23+7</f>
-        <v>45552</v>
-      </c>
-      <c r="B27" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>14</v>
+      <c r="D27" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="n">
         <f aca="false">A24+7</f>
-        <v>45554</v>
+        <v>45925</v>
       </c>
       <c r="B28" s="11" t="n">
         <v>7</v>
@@ -766,7 +766,7 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
         <f aca="false">A25+7</f>
-        <v>45555</v>
+        <v>45926</v>
       </c>
       <c r="B29" s="11" t="n">
         <v>7</v>
@@ -781,7 +781,7 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
         <f aca="false">A26+7</f>
-        <v>45558</v>
+        <v>45929</v>
       </c>
       <c r="B30" s="11" t="n">
         <v>8</v>
@@ -794,24 +794,24 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="10" t="n">
         <f aca="false">A27+7</f>
-        <v>45559</v>
-      </c>
-      <c r="B31" s="13" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>16</v>
+      <c r="D31" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="n">
         <f aca="false">A28+7</f>
-        <v>45561</v>
+        <v>45932</v>
       </c>
       <c r="B32" s="13" t="n">
         <v>3</v>
@@ -826,7 +826,7 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="n">
         <f aca="false">A29+7</f>
-        <v>45562</v>
+        <v>45933</v>
       </c>
       <c r="B33" s="13" t="n">
         <v>3</v>
@@ -841,7 +841,7 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="n">
         <f aca="false">A30+7</f>
-        <v>45565</v>
+        <v>45936</v>
       </c>
       <c r="B34" s="13" t="n">
         <v>3</v>
@@ -856,7 +856,7 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="n">
         <f aca="false">A31+7</f>
-        <v>45566</v>
+        <v>45937</v>
       </c>
       <c r="B35" s="13" t="n">
         <v>4</v>
@@ -871,7 +871,7 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="n">
         <f aca="false">A32+7</f>
-        <v>45568</v>
+        <v>45939</v>
       </c>
       <c r="B36" s="13" t="n">
         <v>4</v>
@@ -886,7 +886,7 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="n">
         <f aca="false">A33+7</f>
-        <v>45569</v>
+        <v>45940</v>
       </c>
       <c r="B37" s="13" t="n">
         <v>5</v>
@@ -899,24 +899,24 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
+      <c r="A38" s="12" t="n">
         <f aca="false">A34+7</f>
-        <v>45572</v>
-      </c>
-      <c r="B38" s="11" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>18</v>
+      <c r="D38" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
         <f aca="false">A35+7</f>
-        <v>45573</v>
+        <v>45944</v>
       </c>
       <c r="B39" s="11" t="n">
         <v>10</v>
@@ -931,7 +931,7 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="n">
         <f aca="false">A36+7</f>
-        <v>45575</v>
+        <v>45946</v>
       </c>
       <c r="B40" s="11" t="n">
         <v>10</v>
@@ -944,24 +944,24 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
+      <c r="A41" s="6" t="n">
         <f aca="false">A37+7</f>
-        <v>45576</v>
-      </c>
-      <c r="B41" s="11" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B41" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
         <f aca="false">A38+7</f>
-        <v>45579</v>
+        <v>45950</v>
       </c>
       <c r="B42" s="11" t="n">
         <v>11</v>
@@ -976,7 +976,7 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="n">
         <f aca="false">A39+7</f>
-        <v>45580</v>
+        <v>45951</v>
       </c>
       <c r="B43" s="11" t="n">
         <v>11</v>
@@ -989,24 +989,24 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
+      <c r="A44" s="10" t="n">
         <f aca="false">A40+7</f>
-        <v>45582</v>
-      </c>
-      <c r="B44" s="13" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B44" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>16</v>
+      <c r="D44" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="n">
         <f aca="false">A41+7</f>
-        <v>45583</v>
+        <v>45954</v>
       </c>
       <c r="B45" s="13" t="n">
         <v>11</v>
@@ -1021,7 +1021,7 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="n">
         <f aca="false">A42+7</f>
-        <v>45586</v>
+        <v>45957</v>
       </c>
       <c r="B46" s="13" t="n">
         <v>12</v>
@@ -1036,7 +1036,7 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="n">
         <f aca="false">A43+7</f>
-        <v>45587</v>
+        <v>45958</v>
       </c>
       <c r="B47" s="13" t="n">
         <v>12</v>
@@ -1051,7 +1051,7 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="n">
         <f aca="false">A44+7</f>
-        <v>45589</v>
+        <v>45960</v>
       </c>
       <c r="B48" s="13" t="n">
         <v>12</v>
@@ -1066,7 +1066,7 @@
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="n">
         <f aca="false">A45+7</f>
-        <v>45590</v>
+        <v>45961</v>
       </c>
       <c r="B49" s="13" t="n">
         <v>12</v>
